--- a/BJ_FAautomaion/BJ_FAautomaion/bin/Debug/Resources/DATA.xlsx
+++ b/BJ_FAautomaion/BJ_FAautomaion/bin/Debug/Resources/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="11640" tabRatio="771" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="11640" tabRatio="771" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="主要经营指标完成情况" sheetId="1" r:id="rId1"/>
@@ -2884,9 +2884,84 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="39" fontId="31" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="31" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2895,17 +2970,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2925,27 +3012,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3082,72 +3148,6 @@
     </xf>
     <xf numFmtId="49" fontId="17" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="39" fontId="31" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="31" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3471,17 +3471,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="183" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
     </row>
     <row r="2" spans="1:9" ht="38.25">
       <c r="A2" s="1" t="s">
@@ -3601,153 +3601,153 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="231" customFormat="1" ht="15" thickBot="1">
-      <c r="A6" s="227">
+    <row r="6" spans="1:9" s="176" customFormat="1" ht="15" thickBot="1">
+      <c r="A6" s="172">
         <v>4</v>
       </c>
-      <c r="B6" s="228" t="s">
+      <c r="B6" s="173" t="s">
         <v>488</v>
       </c>
-      <c r="C6" s="229"/>
-      <c r="D6" s="230">
+      <c r="C6" s="174"/>
+      <c r="D6" s="175">
         <f>'财务 利润及利润分配表'!C5/10000</f>
         <v>0</v>
       </c>
-      <c r="E6" s="230" t="s">
+      <c r="E6" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="230">
+      <c r="F6" s="175">
         <f>'财务 利润及利润分配表'!D5/10000</f>
         <v>0</v>
       </c>
-      <c r="G6" s="230" t="s">
+      <c r="G6" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="230">
+      <c r="H6" s="175">
         <f>'财务 利润及利润分配表'!E5/10000</f>
         <v>0</v>
       </c>
-      <c r="I6" s="230">
+      <c r="I6" s="175">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="231" customFormat="1" ht="15" thickBot="1">
-      <c r="A7" s="227">
+    <row r="7" spans="1:9" s="176" customFormat="1" ht="15" thickBot="1">
+      <c r="A7" s="172">
         <v>5</v>
       </c>
-      <c r="B7" s="228" t="s">
+      <c r="B7" s="173" t="s">
         <v>486</v>
       </c>
-      <c r="C7" s="229"/>
-      <c r="D7" s="230">
+      <c r="C7" s="174"/>
+      <c r="D7" s="175">
         <f>'财务 利润及利润分配表'!C49/10000</f>
         <v>0</v>
       </c>
-      <c r="E7" s="230" t="s">
+      <c r="E7" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="230">
+      <c r="F7" s="175">
         <f>'财务 利润及利润分配表'!D49/10000</f>
         <v>0</v>
       </c>
-      <c r="G7" s="230" t="s">
+      <c r="G7" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="230">
+      <c r="H7" s="175">
         <f>'财务 利润及利润分配表'!E49/10000</f>
         <v>0</v>
       </c>
-      <c r="I7" s="230">
+      <c r="I7" s="175">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="231" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="227">
+    <row r="8" spans="1:9" s="176" customFormat="1" ht="15" thickBot="1">
+      <c r="A8" s="172">
         <v>6</v>
       </c>
-      <c r="B8" s="228" t="s">
+      <c r="B8" s="173" t="s">
         <v>490</v>
       </c>
-      <c r="C8" s="229"/>
-      <c r="D8" s="230">
+      <c r="C8" s="174"/>
+      <c r="D8" s="175">
         <f>期间费用情况!C7/10000</f>
         <v>0</v>
       </c>
-      <c r="E8" s="230" t="s">
+      <c r="E8" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="230">
+      <c r="F8" s="175">
         <f>'财务 利润及利润分配表'!G20/10000</f>
         <v>0</v>
       </c>
-      <c r="G8" s="230" t="s">
+      <c r="G8" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="230">
+      <c r="H8" s="175">
         <f>'财务 利润及利润分配表'!G22/10000</f>
         <v>0</v>
       </c>
-      <c r="I8" s="230">
+      <c r="I8" s="175">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="231" customFormat="1" ht="15" thickBot="1">
-      <c r="A9" s="232">
+    <row r="9" spans="1:9" s="176" customFormat="1" ht="15" thickBot="1">
+      <c r="A9" s="177">
         <v>7</v>
       </c>
-      <c r="B9" s="233" t="s">
+      <c r="B9" s="178" t="s">
         <v>450</v>
       </c>
-      <c r="C9" s="234"/>
-      <c r="D9" s="235" t="e">
+      <c r="C9" s="179"/>
+      <c r="D9" s="180" t="e">
         <f>毛利率情况!B9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E9" s="234"/>
-      <c r="F9" s="235" t="e">
+      <c r="E9" s="179"/>
+      <c r="F9" s="180" t="e">
         <f>毛利率情况!D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="234"/>
-      <c r="H9" s="236" t="e">
+      <c r="G9" s="179"/>
+      <c r="H9" s="181" t="e">
         <f>毛利率情况!E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="235" t="e">
+      <c r="I9" s="180" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="231" customFormat="1" ht="15" thickBot="1">
-      <c r="A10" s="232">
+    <row r="10" spans="1:9" s="176" customFormat="1" ht="15" thickBot="1">
+      <c r="A10" s="177">
         <v>8</v>
       </c>
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="178" t="s">
         <v>495</v>
       </c>
-      <c r="C10" s="234"/>
-      <c r="D10" s="236">
+      <c r="C10" s="179"/>
+      <c r="D10" s="181">
         <f>'财务 资产负债表'!C12/10000</f>
         <v>0</v>
       </c>
-      <c r="E10" s="234" t="s">
+      <c r="E10" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="236">
+      <c r="F10" s="181">
         <f>'财务 资产负债表'!C12/10000</f>
         <v>0</v>
       </c>
-      <c r="G10" s="234" t="s">
+      <c r="G10" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="236">
+      <c r="H10" s="181">
         <f>'财务 资产负债表'!D12/10000</f>
         <v>0</v>
       </c>
-      <c r="I10" s="236">
+      <c r="I10" s="181">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3945,64 +3945,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="193" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" thickBot="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="182" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="183"/>
+      <c r="D2" s="196"/>
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="182" t="s">
+      <c r="G2" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="183"/>
+      <c r="H2" s="196"/>
       <c r="I2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="179"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="186"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="169">
+      <c r="B4" s="188"/>
+      <c r="C4" s="189">
         <f>'财务 利润及利润分配表'!C24/10000</f>
         <v>0</v>
       </c>
-      <c r="D4" s="170"/>
+      <c r="D4" s="190"/>
       <c r="E4" s="70" t="s">
         <v>452</v>
       </c>
@@ -4010,26 +4010,26 @@
         <f>'财务 利润及利润分配表'!D24/10000</f>
         <v>0</v>
       </c>
-      <c r="G4" s="167">
+      <c r="G4" s="191">
         <f>'财务 利润及利润分配表'!E24/10000</f>
         <v>0</v>
       </c>
-      <c r="H4" s="168"/>
+      <c r="H4" s="192"/>
       <c r="I4" s="74">
         <f>F4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="167">
+      <c r="B5" s="188"/>
+      <c r="C5" s="191">
         <f>'财务 利润及利润分配表'!C25/10000</f>
         <v>0</v>
       </c>
-      <c r="D5" s="168"/>
+      <c r="D5" s="192"/>
       <c r="E5" s="70" t="s">
         <v>452</v>
       </c>
@@ -4037,26 +4037,26 @@
         <f>'财务 利润及利润分配表'!D25/10000</f>
         <v>0</v>
       </c>
-      <c r="G5" s="167">
+      <c r="G5" s="191">
         <f>'财务 利润及利润分配表'!E25/10000</f>
         <v>0</v>
       </c>
-      <c r="H5" s="168"/>
+      <c r="H5" s="192"/>
       <c r="I5" s="73">
         <f>F5-G5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="169">
+      <c r="B6" s="188"/>
+      <c r="C6" s="189">
         <f>'财务 利润及利润分配表'!C27/10000</f>
         <v>0</v>
       </c>
-      <c r="D6" s="170"/>
+      <c r="D6" s="190"/>
       <c r="E6" s="70" t="s">
         <v>452</v>
       </c>
@@ -4064,26 +4064,26 @@
         <f>'财务 利润及利润分配表'!D27/10000</f>
         <v>0</v>
       </c>
-      <c r="G6" s="167">
+      <c r="G6" s="191">
         <f>'财务 利润及利润分配表'!E27/10000</f>
         <v>0</v>
       </c>
-      <c r="H6" s="168"/>
+      <c r="H6" s="192"/>
       <c r="I6" s="73">
         <f>F6-G6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="171">
+      <c r="B7" s="188"/>
+      <c r="C7" s="197">
         <f>C4+C5+C6</f>
         <v>0</v>
       </c>
-      <c r="D7" s="172"/>
+      <c r="D7" s="198"/>
       <c r="E7" s="70" t="s">
         <v>452</v>
       </c>
@@ -4091,26 +4091,26 @@
         <f>F4+F5+F6</f>
         <v>0</v>
       </c>
-      <c r="G7" s="167">
+      <c r="G7" s="191">
         <f>G4+G5+G6</f>
         <v>0</v>
       </c>
-      <c r="H7" s="170"/>
+      <c r="H7" s="190"/>
       <c r="I7" s="74">
         <f>F7-G7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="173" t="e">
+      <c r="B8" s="188"/>
+      <c r="C8" s="199" t="e">
         <f>C7/'财务 利润及利润分配表'!G5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D8" s="174"/>
+      <c r="D8" s="200"/>
       <c r="E8" s="71" t="s">
         <v>452</v>
       </c>
@@ -4118,11 +4118,11 @@
         <f>F7/'财务 利润及利润分配表'!H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="175" t="e">
+      <c r="G8" s="201" t="e">
         <f>G7/'财务 利润及利润分配表'!I5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="176"/>
+      <c r="H8" s="202"/>
       <c r="I8" s="76" t="e">
         <f>F8-G8</f>
         <v>#DIV/0!</v>
@@ -4130,6 +4130,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
@@ -4138,18 +4150,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4175,14 +4175,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="193" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" thickBot="1">
       <c r="A2" s="11" t="s">
@@ -4205,14 +4205,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="186"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
@@ -4346,14 +4346,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="206" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" thickBot="1">
       <c r="A2" s="91" t="s">
@@ -4376,14 +4376,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="186"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="205"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="94" t="s">
@@ -4440,12 +4440,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="193" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickTop="1" thickBot="1">
       <c r="A2" s="17" t="s">
@@ -4560,18 +4560,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="208" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="51"/>
@@ -4586,16 +4586,16 @@
       <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="209" t="s">
         <v>469</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="190" t="s">
+      <c r="B3" s="210"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="209" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="194"/>
+      <c r="F3" s="213"/>
       <c r="G3" s="56"/>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
@@ -4788,7 +4788,7 @@
       <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="226" t="s">
+      <c r="A12" s="171" t="s">
         <v>496</v>
       </c>
       <c r="B12" s="116" t="s">
@@ -5980,13 +5980,13 @@
       <c r="J69" s="121"/>
     </row>
     <row r="70" spans="1:10" ht="14.25">
-      <c r="A70" s="195" t="s">
+      <c r="A70" s="214" t="s">
         <v>442</v>
       </c>
-      <c r="B70" s="196"/>
-      <c r="C70" s="196"/>
-      <c r="D70" s="197"/>
-      <c r="E70" s="196"/>
+      <c r="B70" s="215"/>
+      <c r="C70" s="215"/>
+      <c r="D70" s="216"/>
+      <c r="E70" s="215"/>
       <c r="F70" s="57"/>
       <c r="G70" s="58"/>
       <c r="H70" s="57"/>
@@ -6021,8 +6021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6040,13 +6040,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="199"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="218"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="78"/>
@@ -6056,10 +6056,10 @@
       <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="201"/>
+      <c r="B3" s="220"/>
       <c r="C3" s="111" t="s">
         <v>461</v>
       </c>
@@ -6089,7 +6089,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="164" t="s">
         <v>487</v>
       </c>
       <c r="B5" s="143" t="s">
@@ -6350,24 +6350,24 @@
       <c r="E23" s="144"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="222" t="s">
+      <c r="A24" s="167" t="s">
         <v>491</v>
       </c>
       <c r="B24" s="143" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="237"/>
+      <c r="C24" s="182"/>
       <c r="D24" s="144"/>
       <c r="E24" s="144"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="222" t="s">
+      <c r="A25" s="167" t="s">
         <v>492</v>
       </c>
       <c r="B25" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="237"/>
+      <c r="C25" s="182"/>
       <c r="D25" s="144"/>
       <c r="E25" s="144"/>
     </row>
@@ -6378,18 +6378,18 @@
       <c r="B26" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="237"/>
+      <c r="C26" s="182"/>
       <c r="D26" s="144"/>
       <c r="E26" s="144"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="222" t="s">
+      <c r="A27" s="167" t="s">
         <v>493</v>
       </c>
       <c r="B27" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="237"/>
+      <c r="C27" s="182"/>
       <c r="D27" s="144"/>
       <c r="E27" s="144"/>
     </row>
@@ -6400,7 +6400,7 @@
       <c r="B28" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="237"/>
+      <c r="C28" s="182"/>
       <c r="D28" s="144"/>
       <c r="E28" s="144"/>
     </row>
@@ -6514,16 +6514,16 @@
       <c r="D38" s="144"/>
       <c r="E38" s="144"/>
     </row>
-    <row r="39" spans="1:5" s="225" customFormat="1">
-      <c r="A39" s="223" t="s">
+    <row r="39" spans="1:5" s="170" customFormat="1">
+      <c r="A39" s="168" t="s">
         <v>494</v>
       </c>
-      <c r="B39" s="224" t="s">
+      <c r="B39" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="221"/>
-      <c r="D39" s="221"/>
-      <c r="E39" s="221"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="146" t="s">
@@ -6625,7 +6625,7 @@
       <c r="E48" s="144"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="220" t="s">
+      <c r="A49" s="165" t="s">
         <v>489</v>
       </c>
       <c r="B49" s="143" t="s">
@@ -6995,13 +6995,13 @@
       <c r="E80" s="144"/>
     </row>
     <row r="81" spans="1:5" ht="14.25">
-      <c r="A81" s="202" t="s">
+      <c r="A81" s="221" t="s">
         <v>188</v>
       </c>
-      <c r="B81" s="203"/>
-      <c r="C81" s="204"/>
-      <c r="D81" s="203"/>
-      <c r="E81" s="203"/>
+      <c r="B81" s="222"/>
+      <c r="C81" s="223"/>
+      <c r="D81" s="222"/>
+      <c r="E81" s="222"/>
     </row>
     <row r="82" spans="1:5" ht="14.25">
       <c r="A82" s="87"/>
@@ -7038,12 +7038,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="224" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="206"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="225"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="22"/>
@@ -7055,10 +7055,10 @@
       <c r="A3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="209" t="s">
         <v>461</v>
       </c>
-      <c r="C3" s="207"/>
+      <c r="C3" s="226"/>
       <c r="D3" s="24" t="s">
         <v>35</v>
       </c>
@@ -7652,12 +7652,12 @@
       <c r="D61" s="156"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="208" t="s">
+      <c r="A62" s="227" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="209"/>
-      <c r="C62" s="209"/>
-      <c r="D62" s="209"/>
+      <c r="B62" s="228"/>
+      <c r="C62" s="228"/>
+      <c r="D62" s="228"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="28" t="s">
@@ -7682,8 +7682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7708,36 +7708,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="22.5">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="229" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="206"/>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="206"/>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="206"/>
-      <c r="Z1" s="206"/>
-      <c r="AA1" s="206"/>
-      <c r="AB1" s="206"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="225"/>
+      <c r="U1" s="225"/>
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="X1" s="225"/>
+      <c r="Y1" s="225"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="225"/>
+      <c r="AB1" s="225"/>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="30"/>
@@ -7772,20 +7772,20 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="14.25" thickBot="1">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215" t="s">
+      <c r="B3" s="231"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234" t="s">
         <v>248</v>
       </c>
-      <c r="J3" s="215"/>
+      <c r="J3" s="234"/>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
@@ -7808,66 +7808,66 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="14.25" thickBot="1">
-      <c r="A4" s="216" t="s">
+      <c r="A4" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="216" t="s">
+      <c r="C4" s="235" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="217" t="s">
+      <c r="D4" s="236" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="218" t="s">
+      <c r="E4" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218" t="s">
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237" t="s">
         <v>251</v>
       </c>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218" t="s">
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237" t="s">
         <v>480</v>
       </c>
-      <c r="L4" s="218"/>
-      <c r="M4" s="218" t="s">
+      <c r="L4" s="237"/>
+      <c r="M4" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="218" t="s">
+      <c r="N4" s="237" t="s">
         <v>481</v>
       </c>
-      <c r="O4" s="218"/>
-      <c r="P4" s="218"/>
-      <c r="Q4" s="218" t="s">
+      <c r="O4" s="237"/>
+      <c r="P4" s="237"/>
+      <c r="Q4" s="237" t="s">
         <v>482</v>
       </c>
-      <c r="R4" s="218"/>
-      <c r="S4" s="218"/>
-      <c r="T4" s="218" t="s">
+      <c r="R4" s="237"/>
+      <c r="S4" s="237"/>
+      <c r="T4" s="237" t="s">
         <v>483</v>
       </c>
-      <c r="U4" s="218"/>
-      <c r="V4" s="218"/>
-      <c r="W4" s="218" t="s">
+      <c r="U4" s="237"/>
+      <c r="V4" s="237"/>
+      <c r="W4" s="237" t="s">
         <v>484</v>
       </c>
-      <c r="X4" s="218"/>
-      <c r="Y4" s="218"/>
-      <c r="Z4" s="218" t="s">
+      <c r="X4" s="237"/>
+      <c r="Y4" s="237"/>
+      <c r="Z4" s="237" t="s">
         <v>485</v>
       </c>
-      <c r="AA4" s="218"/>
-      <c r="AB4" s="218"/>
+      <c r="AA4" s="237"/>
+      <c r="AB4" s="237"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" thickBot="1">
-      <c r="A5" s="216"/>
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="217"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="236"/>
       <c r="E5" s="65" t="s">
         <v>38</v>
       </c>
@@ -8034,7 +8034,9 @@
       <c r="B7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="26">
+        <v>11111</v>
+      </c>
       <c r="D7" s="40"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
@@ -8451,5 +8453,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BJ_FAautomaion/BJ_FAautomaion/bin/Debug/Resources/DATA.xlsx
+++ b/BJ_FAautomaion/BJ_FAautomaion/bin/Debug/Resources/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="11640" tabRatio="771" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="11640" tabRatio="771" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="主要经营指标完成情况" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="496">
   <si>
     <t>环比增减</t>
   </si>
   <si>
     <t>同比增减</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  </t>
   </si>
   <si>
     <t>负债总额</t>
@@ -2953,6 +2950,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2962,26 +2997,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2993,24 +3008,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3458,7 +3455,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3472,7 +3469,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
       <c r="A1" s="183" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B1" s="183"/>
       <c r="C1" s="183"/>
@@ -3485,31 +3482,31 @@
     </row>
     <row r="2" spans="1:9" ht="38.25">
       <c r="A2" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1">
@@ -3517,406 +3514,209 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="69">
-        <f>'财务 资产负债表'!C69/10000</f>
-        <v>0.01</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="69">
-        <f>'财务 资产负债表'!H69/10000</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="69">
-        <f>'财务 资产负债表'!I69/10000</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="69">
-        <f t="shared" ref="I3:I11" si="0">F3-H3</f>
-        <v>0</v>
-      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="69">
-        <f>'财务 资产负债表'!H43/10000</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="69">
-        <f>'财务 资产负债表'!H43/10000</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="69">
-        <f>'财务 资产负债表'!I43/10000</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6">
-        <f>D4/D3</f>
-        <v>0</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="6" t="e">
-        <f>F4/F3</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="6" t="e">
-        <f>H4/H3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" s="176" customFormat="1" ht="15" thickBot="1">
       <c r="A6" s="172">
         <v>4</v>
       </c>
       <c r="B6" s="173" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C6" s="174"/>
-      <c r="D6" s="175">
-        <f>'财务 利润及利润分配表'!C5/10000</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="175" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="175">
-        <f>'财务 利润及利润分配表'!D5/10000</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="175" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="175">
-        <f>'财务 利润及利润分配表'!E5/10000</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="175">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
     </row>
     <row r="7" spans="1:9" s="176" customFormat="1" ht="15" thickBot="1">
       <c r="A7" s="172">
         <v>5</v>
       </c>
       <c r="B7" s="173" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C7" s="174"/>
-      <c r="D7" s="175">
-        <f>'财务 利润及利润分配表'!C49/10000</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="175" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="175">
-        <f>'财务 利润及利润分配表'!D49/10000</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="175" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="175">
-        <f>'财务 利润及利润分配表'!E49/10000</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="175">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
     </row>
     <row r="8" spans="1:9" s="176" customFormat="1" ht="15" thickBot="1">
       <c r="A8" s="172">
         <v>6</v>
       </c>
       <c r="B8" s="173" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C8" s="174"/>
-      <c r="D8" s="175">
-        <f>期间费用情况!C7/10000</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="175" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="175">
-        <f>'财务 利润及利润分配表'!G20/10000</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="175" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="175">
-        <f>'财务 利润及利润分配表'!G22/10000</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="175">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
     </row>
     <row r="9" spans="1:9" s="176" customFormat="1" ht="15" thickBot="1">
       <c r="A9" s="177">
         <v>7</v>
       </c>
       <c r="B9" s="178" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C9" s="179"/>
-      <c r="D9" s="180" t="e">
-        <f>毛利率情况!B9</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D9" s="180"/>
       <c r="E9" s="179"/>
-      <c r="F9" s="180" t="e">
-        <f>毛利率情况!D9</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F9" s="180"/>
       <c r="G9" s="179"/>
-      <c r="H9" s="181" t="e">
-        <f>毛利率情况!E9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="180" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H9" s="181"/>
+      <c r="I9" s="180"/>
     </row>
     <row r="10" spans="1:9" s="176" customFormat="1" ht="15" thickBot="1">
       <c r="A10" s="177">
         <v>8</v>
       </c>
       <c r="B10" s="178" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C10" s="179"/>
-      <c r="D10" s="181">
-        <f>'财务 资产负债表'!C12/10000</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="179" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="181">
-        <f>'财务 资产负债表'!C12/10000</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="179" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="181">
-        <f>'财务 资产负债表'!D12/10000</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="181">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D10" s="181"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1">
       <c r="A11" s="100">
         <v>9</v>
       </c>
       <c r="B11" s="102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="103"/>
-      <c r="D11" s="104">
-        <f>'财务 资产负债表'!C28/10000</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="104">
-        <f>'财务 资产负债表'!C28/10000</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="104">
-        <f>'财务 资产负债表'!D28/10000</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="104">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D11" s="104"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
     </row>
     <row r="12" spans="1:9" s="64" customFormat="1" ht="15" thickBot="1">
       <c r="A12" s="105">
         <v>10</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="107"/>
-      <c r="D12" s="108" t="e">
-        <f>'财务 利润及利润分配表'!C26/'财务 利润及利润分配表'!C5</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D12" s="108"/>
       <c r="E12" s="109"/>
-      <c r="F12" s="108" t="e">
-        <f>'财务 利润及利润分配表'!D26/'财务 利润及利润分配表'!D5</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F12" s="108"/>
       <c r="G12" s="109"/>
-      <c r="H12" s="108" t="e">
-        <f>'财务 利润及利润分配表'!E26/'财务 利润及利润分配表'!E5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="108" t="e">
-        <f>F12-H12</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1">
       <c r="A13" s="105">
         <v>11</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="109"/>
-      <c r="D13" s="110">
-        <f>'财务 资产负债表'!H68/10000</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="110">
-        <f>'财务 资产负债表'!H68/10000</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="110">
-        <f>'财务 资产负债表'!I68/10000</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="110">
-        <f>F13-H13</f>
-        <v>0</v>
-      </c>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1">
       <c r="A14" s="105">
         <v>12</v>
       </c>
       <c r="B14" s="106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="109"/>
-      <c r="D14" s="108" t="e">
-        <f>'财务 利润及利润分配表'!G51/主要经营指标完成情况!D13</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D14" s="108"/>
       <c r="E14" s="109"/>
-      <c r="F14" s="108" t="e">
-        <f>'财务 利润及利润分配表'!H51/主要经营指标完成情况!F13</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F14" s="108"/>
       <c r="G14" s="109"/>
-      <c r="H14" s="108" t="e">
-        <f>'财务 利润及利润分配表'!I51/主要经营指标完成情况!H13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="108" t="e">
-        <f>F14-H14</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="105">
         <v>13</v>
       </c>
       <c r="B15" s="106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="107"/>
-      <c r="D15" s="108" t="e">
-        <f>'财务 利润及利润分配表'!G18/'财务 利润及利润分配表'!C5</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D15" s="108"/>
       <c r="E15" s="109"/>
-      <c r="F15" s="108" t="e">
-        <f>'财务 利润及利润分配表'!G20/'财务 利润及利润分配表'!D5</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F15" s="108"/>
       <c r="G15" s="109"/>
-      <c r="H15" s="108" t="e">
-        <f>'财务 利润及利润分配表'!G22/'财务 利润及利润分配表'!E5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="108" t="e">
-        <f>F15-H15</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1">
       <c r="A16" s="105">
         <v>14</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C16" s="101"/>
-      <c r="D16" s="110">
-        <f>'财务 资产负债表'!C12/10000+'财务 资产负债表'!C24/10000+'财务 资产负债表'!C42/10000+主要经营指标完成情况!C42</f>
-        <v>0</v>
-      </c>
+      <c r="D16" s="110"/>
       <c r="E16" s="101"/>
-      <c r="F16" s="104">
-        <f>D16</f>
-        <v>0</v>
-      </c>
+      <c r="F16" s="104"/>
       <c r="G16" s="101"/>
-      <c r="H16" s="104">
-        <f>'财务 资产负债表'!D12/10000+'财务 资产负债表'!D24/10000+主要经营指标完成情况!D42/10000</f>
-        <v>0</v>
-      </c>
+      <c r="H16" s="104"/>
       <c r="I16" s="101"/>
     </row>
   </sheetData>
@@ -3934,7 +3734,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="C4" sqref="C4:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3945,203 +3745,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="193" t="s">
-        <v>453</v>
-      </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
+      <c r="A1" s="199" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" thickBot="1">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="201" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="202"/>
+      <c r="C2" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="195" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="196"/>
+      <c r="D2" s="202"/>
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="195" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="196"/>
+      <c r="H2" s="202"/>
       <c r="I2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="196" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="198"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1">
+      <c r="A4" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="186"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1">
-      <c r="A4" s="187" t="s">
+      <c r="B4" s="185"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="74"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1">
+      <c r="A5" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="189">
-        <f>'财务 利润及利润分配表'!C24/10000</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="190"/>
-      <c r="E4" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="F4" s="72">
-        <f>'财务 利润及利润分配表'!D24/10000</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="191">
-        <f>'财务 利润及利润分配表'!E24/10000</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="192"/>
-      <c r="I4" s="74">
-        <f>F4-G4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1">
-      <c r="A5" s="187" t="s">
+      <c r="B5" s="185"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="73"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1">
+      <c r="A6" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="188"/>
-      <c r="C5" s="191">
-        <f>'财务 利润及利润分配表'!C25/10000</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="192"/>
-      <c r="E5" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="F5" s="73">
-        <f>'财务 利润及利润分配表'!D25/10000</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="191">
-        <f>'财务 利润及利润分配表'!E25/10000</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="192"/>
-      <c r="I5" s="73">
-        <f>F5-G5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1">
-      <c r="A6" s="187" t="s">
+      <c r="B6" s="185"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="73"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1">
+      <c r="A7" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="189">
-        <f>'财务 利润及利润分配表'!C27/10000</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" s="73">
-        <f>'财务 利润及利润分配表'!D27/10000</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="191">
-        <f>'财务 利润及利润分配表'!E27/10000</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="192"/>
-      <c r="I6" s="73">
-        <f>F6-G6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1">
-      <c r="A7" s="187" t="s">
+      <c r="B7" s="185"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="74"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1">
+      <c r="A8" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="197">
-        <f>C4+C5+C6</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="198"/>
-      <c r="E7" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="F7" s="74">
-        <f>F4+F5+F6</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="191">
-        <f>G4+G5+G6</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="190"/>
-      <c r="I7" s="74">
-        <f>F7-G7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1">
-      <c r="A8" s="187" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="199" t="e">
-        <f>C7/'财务 利润及利润分配表'!G5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="200"/>
-      <c r="E8" s="71" t="s">
-        <v>452</v>
-      </c>
-      <c r="F8" s="75" t="e">
-        <f>F7/'财务 利润及利润分配表'!H5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="201" t="e">
-        <f>G7/'财务 利润及利润分配表'!I5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="202"/>
-      <c r="I8" s="76" t="e">
-        <f>F8-G8</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B8" s="185"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
@@ -4150,6 +3868,18 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4161,7 +3891,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4175,92 +3905,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="193" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
+      <c r="A1" s="199" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" thickBot="1">
       <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A3" s="184" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="186"/>
+      <c r="A3" s="196" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="198"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="13">
-        <f>'财务 利润及利润分配表'!C5/10000</f>
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B4" s="13"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="13">
-        <f>'财务 利润及利润分配表'!D5/10000</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
-        <f>'财务 利润及利润分配表'!E5/10000</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="163">
-        <f t="shared" ref="F4:F8" si="0">D4-E4</f>
-        <v>0</v>
-      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="163"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="B5" s="13">
-        <f>'财务 利润及利润分配表'!C12/10000</f>
-        <v>0</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B5" s="13"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="13">
-        <f>'财务 利润及利润分配表'!D12/10000</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <f>'财务 利润及利润分配表'!E12/10000</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="163">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="163"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="10"/>
@@ -4270,7 +3976,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
@@ -4280,43 +3986,22 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="15">
-        <f>'财务 利润及利润分配表'!C39/10000</f>
-        <v>0</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B8" s="15"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="15">
-        <f>'财务 利润及利润分配表'!D39/10000</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <f>'财务 利润及利润分配表'!E39/10000</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="163">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="163"/>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="B9" s="63" t="e">
-        <f>B8/B4</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="B9" s="63"/>
       <c r="C9" s="63"/>
-      <c r="D9" s="63" t="e">
-        <f t="shared" ref="D9:E9" si="1">D8/D4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="63" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="63"/>
     </row>
   </sheetData>
@@ -4335,7 +4020,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4347,7 +4032,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" thickBot="1">
       <c r="A1" s="206" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B1" s="207"/>
       <c r="C1" s="207"/>
@@ -4357,19 +4042,19 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" thickBot="1">
       <c r="A2" s="91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="93" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="92" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="92" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="92" t="s">
         <v>1</v>
@@ -4377,7 +4062,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1">
       <c r="A3" s="203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="204"/>
       <c r="C3" s="204"/>
@@ -4387,28 +4072,17 @@
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="95">
-        <v>3488.79</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B4" s="95"/>
       <c r="C4" s="96"/>
-      <c r="D4" s="98">
-        <f>'财务 资产负债表'!C28/10000</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="98">
-        <f>'财务 资产负债表'!D28/10000</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="99">
-        <f>D4-E4</f>
-        <v>0</v>
-      </c>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="97" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="97"/>
@@ -4429,7 +4103,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4440,94 +4114,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A1" s="193" t="s">
-        <v>457</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
+      <c r="A1" s="199" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickTop="1" thickBot="1">
       <c r="A2" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="16">
-        <f>'财务 现金流量表'!C30/10000</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="16">
-        <f>'财务 现金流量表'!D30/10000</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
-        <f>B3-C3</f>
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="16">
-        <f>'财务 现金流量表'!C44/10000</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <f>'财务 现金流量表'!D44/10000</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <f>B4-C4</f>
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="16">
-        <f>'财务 现金流量表'!C57/10000</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="16">
-        <f>'财务 现金流量表'!D57/10000</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <f>B5-C5</f>
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="21">
-        <f>'财务 现金流量表'!C59/10000</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="21">
-        <f>'财务 现金流量表'!D59/10000</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <f>B6-C6</f>
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickTop="1"/>
   </sheetData>
@@ -4543,8 +4181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4561,7 +4199,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="208" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1" s="208"/>
       <c r="C1" s="208"/>
@@ -4587,101 +4225,89 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="209" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B3" s="210"/>
       <c r="C3" s="211"/>
       <c r="D3" s="212"/>
       <c r="E3" s="209" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F3" s="213"/>
       <c r="G3" s="56"/>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
       <c r="J3" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="112" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="113" t="s">
         <v>464</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="C4" s="113" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="D4" s="114" t="s">
         <v>466</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="E4" s="113" t="s">
         <v>467</v>
       </c>
-      <c r="E4" s="113" t="s">
-        <v>468</v>
-      </c>
       <c r="F4" s="114" t="s">
+        <v>463</v>
+      </c>
+      <c r="G4" s="114" t="s">
         <v>464</v>
       </c>
-      <c r="G4" s="114" t="s">
+      <c r="H4" s="114" t="s">
         <v>465</v>
       </c>
-      <c r="H4" s="114" t="s">
+      <c r="I4" s="114" t="s">
         <v>466</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="J4" s="114" t="s">
         <v>467</v>
-      </c>
-      <c r="J4" s="114" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="115" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="117" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="117" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="117" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="118" t="s">
-        <v>266</v>
-      </c>
       <c r="G5" s="119" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="117" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="117" t="s">
-        <v>159</v>
-      </c>
-      <c r="J5" s="117" t="s">
-        <v>159</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="120" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="121"/>
       <c r="D6" s="121"/>
       <c r="E6" s="121"/>
       <c r="F6" s="122" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G6" s="119" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="121"/>
       <c r="I6" s="121"/>
@@ -4689,19 +4315,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="123" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="121"/>
       <c r="D7" s="121"/>
       <c r="E7" s="121"/>
       <c r="F7" s="124" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G7" s="116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="121"/>
       <c r="I7" s="121"/>
@@ -4709,19 +4335,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="121"/>
       <c r="D8" s="121"/>
       <c r="E8" s="121"/>
       <c r="F8" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G8" s="119" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" s="121"/>
       <c r="I8" s="121"/>
@@ -4729,19 +4355,19 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9" s="116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="121"/>
       <c r="D9" s="121"/>
       <c r="E9" s="121"/>
       <c r="F9" s="122" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G9" s="119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H9" s="121"/>
       <c r="I9" s="121"/>
@@ -4749,19 +4375,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="123" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10" s="116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="126"/>
       <c r="D10" s="121"/>
       <c r="E10" s="121"/>
       <c r="F10" s="127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G10" s="116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H10" s="126"/>
       <c r="I10" s="121"/>
@@ -4769,19 +4395,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="128" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B11" s="116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="121"/>
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="129" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G11" s="116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H11" s="121"/>
       <c r="I11" s="121"/>
@@ -4789,19 +4415,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="171" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B12" s="116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="121"/>
       <c r="D12" s="121"/>
       <c r="E12" s="121"/>
       <c r="F12" s="129" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G12" s="116" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H12" s="121"/>
       <c r="I12" s="121"/>
@@ -4809,19 +4435,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="128" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B13" s="116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="121"/>
       <c r="D13" s="121"/>
       <c r="E13" s="121"/>
       <c r="F13" s="129" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G13" s="116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H13" s="121"/>
       <c r="I13" s="121"/>
@@ -4829,19 +4455,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" s="116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="121"/>
       <c r="D14" s="121"/>
       <c r="E14" s="121"/>
       <c r="F14" s="129" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G14" s="116" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H14" s="121"/>
       <c r="I14" s="121"/>
@@ -4849,19 +4475,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="128" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="121"/>
       <c r="D15" s="121"/>
       <c r="E15" s="121"/>
       <c r="F15" s="129" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G15" s="116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H15" s="121"/>
       <c r="I15" s="121"/>
@@ -4869,19 +4495,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="128" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16" s="116" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="121"/>
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="129" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" s="116" t="s">
         <v>287</v>
-      </c>
-      <c r="G16" s="116" t="s">
-        <v>288</v>
       </c>
       <c r="H16" s="121"/>
       <c r="I16" s="121"/>
@@ -4889,19 +4515,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="128" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="121"/>
       <c r="D17" s="121"/>
       <c r="E17" s="121"/>
       <c r="F17" s="129" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="116" t="s">
         <v>290</v>
-      </c>
-      <c r="G17" s="116" t="s">
-        <v>291</v>
       </c>
       <c r="H17" s="121"/>
       <c r="I17" s="121"/>
@@ -4909,19 +4535,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="128" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" s="116" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="121"/>
       <c r="D18" s="121"/>
       <c r="E18" s="121"/>
       <c r="F18" s="129" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" s="116" t="s">
         <v>293</v>
-      </c>
-      <c r="G18" s="116" t="s">
-        <v>294</v>
       </c>
       <c r="H18" s="121"/>
       <c r="I18" s="121"/>
@@ -4929,19 +4555,19 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="130" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="121"/>
       <c r="D19" s="121"/>
       <c r="E19" s="121"/>
       <c r="F19" s="129" t="s">
+        <v>295</v>
+      </c>
+      <c r="G19" s="116" t="s">
         <v>296</v>
-      </c>
-      <c r="G19" s="116" t="s">
-        <v>297</v>
       </c>
       <c r="H19" s="121"/>
       <c r="I19" s="121"/>
@@ -4949,19 +4575,19 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="130" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B20" s="116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="121"/>
       <c r="D20" s="121"/>
       <c r="E20" s="121"/>
       <c r="F20" s="129" t="s">
+        <v>298</v>
+      </c>
+      <c r="G20" s="116" t="s">
         <v>299</v>
-      </c>
-      <c r="G20" s="116" t="s">
-        <v>300</v>
       </c>
       <c r="H20" s="121"/>
       <c r="I20" s="121"/>
@@ -4969,19 +4595,19 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="130" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="121"/>
       <c r="D21" s="121"/>
       <c r="E21" s="121"/>
       <c r="F21" s="129" t="s">
+        <v>301</v>
+      </c>
+      <c r="G21" s="116" t="s">
         <v>302</v>
-      </c>
-      <c r="G21" s="116" t="s">
-        <v>303</v>
       </c>
       <c r="H21" s="121"/>
       <c r="I21" s="121"/>
@@ -4989,19 +4615,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="128" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B22" s="116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="121"/>
       <c r="D22" s="121"/>
       <c r="E22" s="121"/>
       <c r="F22" s="129" t="s">
+        <v>304</v>
+      </c>
+      <c r="G22" s="116" t="s">
         <v>305</v>
-      </c>
-      <c r="G22" s="116" t="s">
-        <v>306</v>
       </c>
       <c r="H22" s="121"/>
       <c r="I22" s="121"/>
@@ -5009,19 +4635,19 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="130" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23" s="116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="121"/>
       <c r="D23" s="121"/>
       <c r="E23" s="121"/>
       <c r="F23" s="129" t="s">
+        <v>307</v>
+      </c>
+      <c r="G23" s="116" t="s">
         <v>308</v>
-      </c>
-      <c r="G23" s="116" t="s">
-        <v>309</v>
       </c>
       <c r="H23" s="121"/>
       <c r="I23" s="121"/>
@@ -5029,19 +4655,19 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="130" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B24" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="121"/>
       <c r="D24" s="121"/>
       <c r="E24" s="121"/>
       <c r="F24" s="129" t="s">
+        <v>310</v>
+      </c>
+      <c r="G24" s="116" t="s">
         <v>311</v>
-      </c>
-      <c r="G24" s="116" t="s">
-        <v>312</v>
       </c>
       <c r="H24" s="121"/>
       <c r="I24" s="121"/>
@@ -5049,19 +4675,19 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="130" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B25" s="116" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="121"/>
       <c r="D25" s="121"/>
       <c r="E25" s="121"/>
       <c r="F25" s="129" t="s">
+        <v>312</v>
+      </c>
+      <c r="G25" s="116" t="s">
         <v>313</v>
-      </c>
-      <c r="G25" s="116" t="s">
-        <v>314</v>
       </c>
       <c r="H25" s="121"/>
       <c r="I25" s="121"/>
@@ -5069,19 +4695,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="130" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B26" s="116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="121"/>
       <c r="D26" s="121"/>
       <c r="E26" s="121"/>
       <c r="F26" s="129" t="s">
+        <v>315</v>
+      </c>
+      <c r="G26" s="116" t="s">
         <v>316</v>
-      </c>
-      <c r="G26" s="116" t="s">
-        <v>317</v>
       </c>
       <c r="H26" s="121"/>
       <c r="I26" s="121"/>
@@ -5089,19 +4715,19 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="130" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B27" s="116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="121"/>
       <c r="D27" s="121"/>
       <c r="E27" s="121"/>
       <c r="F27" s="129" t="s">
+        <v>318</v>
+      </c>
+      <c r="G27" s="116" t="s">
         <v>319</v>
-      </c>
-      <c r="G27" s="116" t="s">
-        <v>320</v>
       </c>
       <c r="H27" s="121"/>
       <c r="I27" s="121"/>
@@ -5109,19 +4735,19 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="130" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B28" s="116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="121"/>
       <c r="D28" s="121"/>
       <c r="E28" s="121"/>
       <c r="F28" s="129" t="s">
+        <v>321</v>
+      </c>
+      <c r="G28" s="116" t="s">
         <v>322</v>
-      </c>
-      <c r="G28" s="116" t="s">
-        <v>323</v>
       </c>
       <c r="H28" s="121"/>
       <c r="I28" s="121"/>
@@ -5129,19 +4755,19 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="130" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" s="116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="121"/>
       <c r="D29" s="121"/>
       <c r="E29" s="121"/>
       <c r="F29" s="129" t="s">
+        <v>324</v>
+      </c>
+      <c r="G29" s="116" t="s">
         <v>325</v>
-      </c>
-      <c r="G29" s="116" t="s">
-        <v>326</v>
       </c>
       <c r="H29" s="121"/>
       <c r="I29" s="121"/>
@@ -5149,19 +4775,19 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B30" s="116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="121"/>
       <c r="D30" s="121"/>
       <c r="E30" s="121"/>
       <c r="F30" s="129" t="s">
+        <v>327</v>
+      </c>
+      <c r="G30" s="116" t="s">
         <v>328</v>
-      </c>
-      <c r="G30" s="116" t="s">
-        <v>329</v>
       </c>
       <c r="H30" s="121"/>
       <c r="I30" s="121"/>
@@ -5169,19 +4795,19 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="130" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="121"/>
       <c r="D31" s="121"/>
       <c r="E31" s="121"/>
       <c r="F31" s="131" t="s">
+        <v>330</v>
+      </c>
+      <c r="G31" s="116" t="s">
         <v>331</v>
-      </c>
-      <c r="G31" s="116" t="s">
-        <v>332</v>
       </c>
       <c r="H31" s="132"/>
       <c r="I31" s="132"/>
@@ -5189,19 +4815,19 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="130" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B32" s="116" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="121"/>
       <c r="D32" s="121"/>
       <c r="E32" s="121"/>
       <c r="F32" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="G32" s="116" t="s">
         <v>334</v>
-      </c>
-      <c r="G32" s="116" t="s">
-        <v>335</v>
       </c>
       <c r="H32" s="117"/>
       <c r="I32" s="117"/>
@@ -5209,19 +4835,19 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="130" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B33" s="116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="121"/>
       <c r="D33" s="121"/>
       <c r="E33" s="121"/>
       <c r="F33" s="129" t="s">
+        <v>336</v>
+      </c>
+      <c r="G33" s="116" t="s">
         <v>337</v>
-      </c>
-      <c r="G33" s="116" t="s">
-        <v>338</v>
       </c>
       <c r="H33" s="132"/>
       <c r="I33" s="132"/>
@@ -5229,19 +4855,19 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="123" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B34" s="116" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="126"/>
       <c r="D34" s="121"/>
       <c r="E34" s="121"/>
       <c r="F34" s="124" t="s">
+        <v>339</v>
+      </c>
+      <c r="G34" s="116" t="s">
         <v>340</v>
-      </c>
-      <c r="G34" s="116" t="s">
-        <v>341</v>
       </c>
       <c r="H34" s="126"/>
       <c r="I34" s="121"/>
@@ -5249,19 +4875,19 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="130" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B35" s="116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="121"/>
       <c r="D35" s="121"/>
       <c r="E35" s="121"/>
       <c r="F35" s="129" t="s">
+        <v>342</v>
+      </c>
+      <c r="G35" s="116" t="s">
         <v>343</v>
-      </c>
-      <c r="G35" s="116" t="s">
-        <v>344</v>
       </c>
       <c r="H35" s="121"/>
       <c r="I35" s="121"/>
@@ -5269,19 +4895,19 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="130" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B36" s="116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="121"/>
       <c r="D36" s="121"/>
       <c r="E36" s="121"/>
       <c r="F36" s="129" t="s">
+        <v>345</v>
+      </c>
+      <c r="G36" s="116" t="s">
         <v>346</v>
-      </c>
-      <c r="G36" s="116" t="s">
-        <v>347</v>
       </c>
       <c r="H36" s="121"/>
       <c r="I36" s="121"/>
@@ -5289,19 +4915,19 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="134" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B37" s="116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="121"/>
       <c r="D37" s="121"/>
       <c r="E37" s="121"/>
       <c r="F37" s="129" t="s">
+        <v>348</v>
+      </c>
+      <c r="G37" s="116" t="s">
         <v>349</v>
-      </c>
-      <c r="G37" s="116" t="s">
-        <v>350</v>
       </c>
       <c r="H37" s="121"/>
       <c r="I37" s="121"/>
@@ -5309,19 +4935,19 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="135" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B38" s="116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="117"/>
       <c r="D38" s="117"/>
       <c r="E38" s="117"/>
       <c r="F38" s="129" t="s">
+        <v>351</v>
+      </c>
+      <c r="G38" s="116" t="s">
         <v>352</v>
-      </c>
-      <c r="G38" s="116" t="s">
-        <v>353</v>
       </c>
       <c r="H38" s="121"/>
       <c r="I38" s="121"/>
@@ -5329,19 +4955,19 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="130" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B39" s="116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="121"/>
       <c r="D39" s="121"/>
       <c r="E39" s="121"/>
       <c r="F39" s="129" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" s="116" t="s">
         <v>355</v>
-      </c>
-      <c r="G39" s="116" t="s">
-        <v>356</v>
       </c>
       <c r="H39" s="121"/>
       <c r="I39" s="121"/>
@@ -5349,19 +4975,19 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="130" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B40" s="116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="132"/>
       <c r="D40" s="132"/>
       <c r="E40" s="132"/>
       <c r="F40" s="129" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" s="116" t="s">
         <v>358</v>
-      </c>
-      <c r="G40" s="116" t="s">
-        <v>359</v>
       </c>
       <c r="H40" s="121"/>
       <c r="I40" s="121"/>
@@ -5369,19 +4995,19 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="130" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B41" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="121"/>
       <c r="D41" s="121"/>
       <c r="E41" s="121"/>
       <c r="F41" s="129" t="s">
+        <v>360</v>
+      </c>
+      <c r="G41" s="116" t="s">
         <v>361</v>
-      </c>
-      <c r="G41" s="116" t="s">
-        <v>362</v>
       </c>
       <c r="H41" s="121"/>
       <c r="I41" s="121"/>
@@ -5389,19 +5015,19 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="130" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B42" s="116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="121"/>
       <c r="D42" s="121"/>
       <c r="E42" s="121"/>
       <c r="F42" s="131" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" s="116" t="s">
         <v>364</v>
-      </c>
-      <c r="G42" s="116" t="s">
-        <v>365</v>
       </c>
       <c r="H42" s="121"/>
       <c r="I42" s="121"/>
@@ -5409,19 +5035,19 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="130" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B43" s="116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="121"/>
       <c r="D43" s="121"/>
       <c r="E43" s="121"/>
       <c r="F43" s="131" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" s="116" t="s">
         <v>367</v>
-      </c>
-      <c r="G43" s="116" t="s">
-        <v>368</v>
       </c>
       <c r="H43" s="121"/>
       <c r="I43" s="121"/>
@@ -5429,19 +5055,19 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="130" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B44" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="121"/>
       <c r="D44" s="121"/>
       <c r="E44" s="121"/>
       <c r="F44" s="129" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" s="116" t="s">
         <v>370</v>
-      </c>
-      <c r="G44" s="116" t="s">
-        <v>371</v>
       </c>
       <c r="H44" s="132"/>
       <c r="I44" s="132"/>
@@ -5449,19 +5075,19 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="130" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B45" s="116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="121"/>
       <c r="D45" s="121"/>
       <c r="E45" s="121"/>
       <c r="F45" s="133" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" s="116" t="s">
         <v>373</v>
-      </c>
-      <c r="G45" s="116" t="s">
-        <v>374</v>
       </c>
       <c r="H45" s="117"/>
       <c r="I45" s="117"/>
@@ -5469,19 +5095,19 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="130" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B46" s="116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="121"/>
       <c r="D46" s="121"/>
       <c r="E46" s="121"/>
       <c r="F46" s="129" t="s">
+        <v>375</v>
+      </c>
+      <c r="G46" s="116" t="s">
         <v>376</v>
-      </c>
-      <c r="G46" s="116" t="s">
-        <v>377</v>
       </c>
       <c r="H46" s="121"/>
       <c r="I46" s="121"/>
@@ -5489,19 +5115,19 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="130" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B47" s="116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" s="121"/>
       <c r="D47" s="121"/>
       <c r="E47" s="121"/>
       <c r="F47" s="129" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" s="116" t="s">
         <v>379</v>
-      </c>
-      <c r="G47" s="116" t="s">
-        <v>380</v>
       </c>
       <c r="H47" s="132"/>
       <c r="I47" s="132"/>
@@ -5509,19 +5135,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="130" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B48" s="116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" s="121"/>
       <c r="D48" s="121"/>
       <c r="E48" s="121"/>
       <c r="F48" s="129" t="s">
+        <v>381</v>
+      </c>
+      <c r="G48" s="116" t="s">
         <v>382</v>
-      </c>
-      <c r="G48" s="116" t="s">
-        <v>383</v>
       </c>
       <c r="H48" s="121"/>
       <c r="I48" s="121"/>
@@ -5529,19 +5155,19 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="130" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B49" s="116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" s="121"/>
       <c r="D49" s="121"/>
       <c r="E49" s="121"/>
       <c r="F49" s="129" t="s">
+        <v>384</v>
+      </c>
+      <c r="G49" s="116" t="s">
         <v>385</v>
-      </c>
-      <c r="G49" s="116" t="s">
-        <v>386</v>
       </c>
       <c r="H49" s="121"/>
       <c r="I49" s="121"/>
@@ -5549,19 +5175,19 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="130" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B50" s="116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" s="121"/>
       <c r="D50" s="121"/>
       <c r="E50" s="121"/>
       <c r="F50" s="129" t="s">
+        <v>387</v>
+      </c>
+      <c r="G50" s="116" t="s">
         <v>388</v>
-      </c>
-      <c r="G50" s="116" t="s">
-        <v>389</v>
       </c>
       <c r="H50" s="121"/>
       <c r="I50" s="121"/>
@@ -5569,19 +5195,19 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="130" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B51" s="116" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="121"/>
       <c r="D51" s="121"/>
       <c r="E51" s="121"/>
       <c r="F51" s="129" t="s">
+        <v>390</v>
+      </c>
+      <c r="G51" s="116" t="s">
         <v>391</v>
-      </c>
-      <c r="G51" s="116" t="s">
-        <v>392</v>
       </c>
       <c r="H51" s="121"/>
       <c r="I51" s="121"/>
@@ -5589,19 +5215,19 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="130" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B52" s="116" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="121"/>
       <c r="D52" s="121"/>
       <c r="E52" s="121"/>
       <c r="F52" s="129" t="s">
+        <v>393</v>
+      </c>
+      <c r="G52" s="116" t="s">
         <v>394</v>
-      </c>
-      <c r="G52" s="116" t="s">
-        <v>395</v>
       </c>
       <c r="H52" s="121"/>
       <c r="I52" s="121"/>
@@ -5609,19 +5235,19 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="130" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B53" s="116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="121"/>
       <c r="D53" s="121"/>
       <c r="E53" s="121"/>
       <c r="F53" s="129" t="s">
+        <v>396</v>
+      </c>
+      <c r="G53" s="116" t="s">
         <v>397</v>
-      </c>
-      <c r="G53" s="116" t="s">
-        <v>398</v>
       </c>
       <c r="H53" s="121"/>
       <c r="I53" s="121"/>
@@ -5629,19 +5255,19 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="130" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B54" s="116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="121"/>
       <c r="D54" s="121"/>
       <c r="E54" s="121"/>
       <c r="F54" s="129" t="s">
+        <v>399</v>
+      </c>
+      <c r="G54" s="116" t="s">
         <v>400</v>
-      </c>
-      <c r="G54" s="116" t="s">
-        <v>401</v>
       </c>
       <c r="H54" s="121"/>
       <c r="I54" s="121"/>
@@ -5649,19 +5275,19 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="130" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B55" s="116" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="121"/>
       <c r="D55" s="121"/>
       <c r="E55" s="121"/>
       <c r="F55" s="129" t="s">
+        <v>402</v>
+      </c>
+      <c r="G55" s="116" t="s">
         <v>403</v>
-      </c>
-      <c r="G55" s="116" t="s">
-        <v>404</v>
       </c>
       <c r="H55" s="121"/>
       <c r="I55" s="121"/>
@@ -5669,19 +5295,19 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="130" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B56" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" s="121"/>
       <c r="D56" s="121"/>
       <c r="E56" s="121"/>
       <c r="F56" s="129" t="s">
+        <v>405</v>
+      </c>
+      <c r="G56" s="116" t="s">
         <v>406</v>
-      </c>
-      <c r="G56" s="116" t="s">
-        <v>407</v>
       </c>
       <c r="H56" s="121"/>
       <c r="I56" s="121"/>
@@ -5689,19 +5315,19 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="130" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B57" s="116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="121"/>
       <c r="D57" s="121"/>
       <c r="E57" s="121"/>
       <c r="F57" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="G57" s="116" t="s">
         <v>409</v>
-      </c>
-      <c r="G57" s="116" t="s">
-        <v>410</v>
       </c>
       <c r="H57" s="121"/>
       <c r="I57" s="121"/>
@@ -5709,19 +5335,19 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="130" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B58" s="116" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" s="121"/>
       <c r="D58" s="121"/>
       <c r="E58" s="121"/>
       <c r="F58" s="129" t="s">
+        <v>411</v>
+      </c>
+      <c r="G58" s="116" t="s">
         <v>412</v>
-      </c>
-      <c r="G58" s="116" t="s">
-        <v>413</v>
       </c>
       <c r="H58" s="121"/>
       <c r="I58" s="121"/>
@@ -5729,19 +5355,19 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="130" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B59" s="116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C59" s="121"/>
       <c r="D59" s="121"/>
       <c r="E59" s="121"/>
       <c r="F59" s="129" t="s">
+        <v>414</v>
+      </c>
+      <c r="G59" s="116" t="s">
         <v>415</v>
-      </c>
-      <c r="G59" s="116" t="s">
-        <v>416</v>
       </c>
       <c r="H59" s="121"/>
       <c r="I59" s="121"/>
@@ -5749,19 +5375,19 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="130" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B60" s="116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="121"/>
       <c r="D60" s="121"/>
       <c r="E60" s="121"/>
       <c r="F60" s="129" t="s">
+        <v>417</v>
+      </c>
+      <c r="G60" s="116" t="s">
         <v>418</v>
-      </c>
-      <c r="G60" s="116" t="s">
-        <v>419</v>
       </c>
       <c r="H60" s="121"/>
       <c r="I60" s="121"/>
@@ -5769,19 +5395,19 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="130" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B61" s="116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61" s="121"/>
       <c r="D61" s="121"/>
       <c r="E61" s="121"/>
       <c r="F61" s="129" t="s">
+        <v>420</v>
+      </c>
+      <c r="G61" s="116" t="s">
         <v>421</v>
-      </c>
-      <c r="G61" s="116" t="s">
-        <v>422</v>
       </c>
       <c r="H61" s="121"/>
       <c r="I61" s="121"/>
@@ -5789,19 +5415,19 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="130" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B62" s="116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62" s="121"/>
       <c r="D62" s="121"/>
       <c r="E62" s="121"/>
       <c r="F62" s="129" t="s">
+        <v>423</v>
+      </c>
+      <c r="G62" s="116" t="s">
         <v>424</v>
-      </c>
-      <c r="G62" s="116" t="s">
-        <v>425</v>
       </c>
       <c r="H62" s="121"/>
       <c r="I62" s="121"/>
@@ -5809,19 +5435,19 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="134" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B63" s="116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="121"/>
       <c r="D63" s="121"/>
       <c r="E63" s="121"/>
       <c r="F63" s="129" t="s">
+        <v>426</v>
+      </c>
+      <c r="G63" s="116" t="s">
         <v>427</v>
-      </c>
-      <c r="G63" s="116" t="s">
-        <v>428</v>
       </c>
       <c r="H63" s="121"/>
       <c r="I63" s="121"/>
@@ -5829,25 +5455,19 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B64" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="117" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="117" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64" s="117" t="s">
-        <v>159</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
       <c r="F64" s="129" t="s">
+        <v>428</v>
+      </c>
+      <c r="G64" s="116" t="s">
         <v>429</v>
-      </c>
-      <c r="G64" s="116" t="s">
-        <v>430</v>
       </c>
       <c r="H64" s="121"/>
       <c r="I64" s="121"/>
@@ -5855,25 +5475,19 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B65" s="116" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="E65" s="137" t="s">
-        <v>159</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
       <c r="F65" s="129" t="s">
+        <v>430</v>
+      </c>
+      <c r="G65" s="116" t="s">
         <v>431</v>
-      </c>
-      <c r="G65" s="116" t="s">
-        <v>432</v>
       </c>
       <c r="H65" s="121"/>
       <c r="I65" s="121"/>
@@ -5881,25 +5495,19 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B66" s="116" t="s">
-        <v>158</v>
-      </c>
-      <c r="C66" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="E66" s="137" t="s">
-        <v>159</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="137"/>
       <c r="F66" s="131" t="s">
+        <v>432</v>
+      </c>
+      <c r="G66" s="116" t="s">
         <v>433</v>
-      </c>
-      <c r="G66" s="116" t="s">
-        <v>434</v>
       </c>
       <c r="H66" s="121"/>
       <c r="I66" s="121"/>
@@ -5907,25 +5515,19 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B67" s="116" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="D67" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" s="137" t="s">
-        <v>159</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="137"/>
       <c r="F67" s="129" t="s">
+        <v>434</v>
+      </c>
+      <c r="G67" s="116" t="s">
         <v>435</v>
-      </c>
-      <c r="G67" s="116" t="s">
-        <v>436</v>
       </c>
       <c r="H67" s="126"/>
       <c r="I67" s="121"/>
@@ -5933,25 +5535,19 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B68" s="116" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="E68" s="137" t="s">
-        <v>159</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C68" s="137"/>
+      <c r="D68" s="137"/>
+      <c r="E68" s="137"/>
       <c r="F68" s="131" t="s">
+        <v>436</v>
+      </c>
+      <c r="G68" s="116" t="s">
         <v>437</v>
-      </c>
-      <c r="G68" s="116" t="s">
-        <v>438</v>
       </c>
       <c r="H68" s="121"/>
       <c r="I68" s="121"/>
@@ -5959,10 +5555,10 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="134" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B69" s="116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C69" s="121">
         <v>100</v>
@@ -5970,10 +5566,10 @@
       <c r="D69" s="121"/>
       <c r="E69" s="121"/>
       <c r="F69" s="131" t="s">
+        <v>439</v>
+      </c>
+      <c r="G69" s="116" t="s">
         <v>440</v>
-      </c>
-      <c r="G69" s="116" t="s">
-        <v>441</v>
       </c>
       <c r="H69" s="121"/>
       <c r="I69" s="121"/>
@@ -5981,7 +5577,7 @@
     </row>
     <row r="70" spans="1:10" ht="14.25">
       <c r="A70" s="214" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B70" s="215"/>
       <c r="C70" s="215"/>
@@ -6021,8 +5617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6041,7 +5637,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="217"/>
       <c r="C1" s="218"/>
@@ -6057,43 +5653,43 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="220"/>
       <c r="C3" s="111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D3" s="82"/>
       <c r="E3" s="81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="139" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="C4" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="D4" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="E4" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="140" t="s">
-        <v>40</v>
-      </c>
       <c r="G4" s="83" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="164" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B5" s="143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="144"/>
       <c r="D5" s="144"/>
@@ -6111,15 +5707,15 @@
         <v>0</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="145" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="143" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="143" t="s">
-        <v>43</v>
       </c>
       <c r="C6" s="144"/>
       <c r="D6" s="144"/>
@@ -6127,10 +5723,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="143" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" s="143" t="s">
-        <v>45</v>
       </c>
       <c r="C7" s="144"/>
       <c r="D7" s="144"/>
@@ -6138,10 +5734,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="145" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="143" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="143" t="s">
-        <v>47</v>
       </c>
       <c r="C8" s="144"/>
       <c r="D8" s="144"/>
@@ -6149,10 +5745,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="143" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" s="143" t="s">
-        <v>49</v>
       </c>
       <c r="C9" s="144"/>
       <c r="D9" s="144"/>
@@ -6160,10 +5756,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="146" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="143" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" s="143" t="s">
-        <v>51</v>
       </c>
       <c r="C10" s="144"/>
       <c r="D10" s="147"/>
@@ -6171,10 +5767,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="145" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="143" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" s="143" t="s">
-        <v>53</v>
       </c>
       <c r="C11" s="144"/>
       <c r="D11" s="144"/>
@@ -6182,10 +5778,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="142" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="143" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" s="143" t="s">
-        <v>55</v>
       </c>
       <c r="C12" s="144"/>
       <c r="D12" s="144"/>
@@ -6193,10 +5789,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="145" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="143" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" s="143" t="s">
-        <v>57</v>
       </c>
       <c r="C13" s="144"/>
       <c r="D13" s="144"/>
@@ -6205,10 +5801,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="143" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" s="143" t="s">
-        <v>59</v>
       </c>
       <c r="C14" s="144"/>
       <c r="D14" s="144"/>
@@ -6216,10 +5812,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="143" t="s">
         <v>60</v>
-      </c>
-      <c r="B15" s="143" t="s">
-        <v>61</v>
       </c>
       <c r="C15" s="144"/>
       <c r="D15" s="144"/>
@@ -6227,10 +5823,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="143" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" s="143" t="s">
-        <v>63</v>
       </c>
       <c r="C16" s="144"/>
       <c r="D16" s="144"/>
@@ -6238,10 +5834,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="145" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="143" t="s">
         <v>64</v>
-      </c>
-      <c r="B17" s="143" t="s">
-        <v>65</v>
       </c>
       <c r="C17" s="144"/>
       <c r="D17" s="144"/>
@@ -6249,10 +5845,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="143" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" s="143" t="s">
-        <v>67</v>
       </c>
       <c r="C18" s="144"/>
       <c r="D18" s="147"/>
@@ -6262,32 +5858,32 @@
         <v>0</v>
       </c>
       <c r="H18" s="77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I18" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="146" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="143" t="s">
         <v>68</v>
-      </c>
-      <c r="B19" s="143" t="s">
-        <v>69</v>
       </c>
       <c r="C19" s="144"/>
       <c r="D19" s="147"/>
       <c r="E19" s="144"/>
       <c r="I19" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="146" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="143" t="s">
         <v>70</v>
-      </c>
-      <c r="B20" s="143" t="s">
-        <v>71</v>
       </c>
       <c r="C20" s="144"/>
       <c r="D20" s="147"/>
@@ -6297,32 +5893,32 @@
         <v>0</v>
       </c>
       <c r="H20" s="77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I20" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="146" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="143" t="s">
         <v>72</v>
-      </c>
-      <c r="B21" s="143" t="s">
-        <v>73</v>
       </c>
       <c r="C21" s="144"/>
       <c r="D21" s="147"/>
       <c r="E21" s="144"/>
       <c r="I21" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="146" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="143" t="s">
         <v>74</v>
-      </c>
-      <c r="B22" s="143" t="s">
-        <v>75</v>
       </c>
       <c r="C22" s="144"/>
       <c r="D22" s="147"/>
@@ -6332,18 +5928,18 @@
         <v>0</v>
       </c>
       <c r="H22" s="77" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I22" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="143" t="s">
         <v>76</v>
-      </c>
-      <c r="B23" s="143" t="s">
-        <v>77</v>
       </c>
       <c r="C23" s="144"/>
       <c r="D23" s="144"/>
@@ -6351,10 +5947,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="167" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B24" s="143" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="182"/>
       <c r="D24" s="144"/>
@@ -6362,10 +5958,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="167" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B25" s="143" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="182"/>
       <c r="D25" s="144"/>
@@ -6373,10 +5969,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="146" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="143" t="s">
         <v>80</v>
-      </c>
-      <c r="B26" s="143" t="s">
-        <v>81</v>
       </c>
       <c r="C26" s="182"/>
       <c r="D26" s="144"/>
@@ -6384,10 +5980,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="167" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B27" s="143" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="182"/>
       <c r="D27" s="144"/>
@@ -6395,10 +5991,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="146" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="143" t="s">
         <v>83</v>
-      </c>
-      <c r="B28" s="143" t="s">
-        <v>84</v>
       </c>
       <c r="C28" s="182"/>
       <c r="D28" s="144"/>
@@ -6406,10 +6002,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="146" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="143" t="s">
         <v>85</v>
-      </c>
-      <c r="B29" s="143" t="s">
-        <v>86</v>
       </c>
       <c r="C29" s="144"/>
       <c r="D29" s="144"/>
@@ -6417,10 +6013,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="143" t="s">
         <v>87</v>
-      </c>
-      <c r="B30" s="143" t="s">
-        <v>88</v>
       </c>
       <c r="C30" s="144"/>
       <c r="D30" s="144"/>
@@ -6428,10 +6024,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="146" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="143" t="s">
         <v>89</v>
-      </c>
-      <c r="B31" s="143" t="s">
-        <v>90</v>
       </c>
       <c r="C31" s="144"/>
       <c r="D31" s="144"/>
@@ -6439,10 +6035,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="146" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="143" t="s">
         <v>91</v>
-      </c>
-      <c r="B32" s="143" t="s">
-        <v>92</v>
       </c>
       <c r="C32" s="144"/>
       <c r="D32" s="147"/>
@@ -6450,10 +6046,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="143" t="s">
         <v>93</v>
-      </c>
-      <c r="B33" s="143" t="s">
-        <v>94</v>
       </c>
       <c r="C33" s="144"/>
       <c r="D33" s="144"/>
@@ -6461,10 +6057,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="143" t="s">
         <v>95</v>
-      </c>
-      <c r="B34" s="143" t="s">
-        <v>96</v>
       </c>
       <c r="C34" s="144"/>
       <c r="D34" s="144"/>
@@ -6472,10 +6068,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="143" t="s">
         <v>97</v>
-      </c>
-      <c r="B35" s="143" t="s">
-        <v>98</v>
       </c>
       <c r="C35" s="144"/>
       <c r="D35" s="144"/>
@@ -6483,10 +6079,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="143" t="s">
         <v>99</v>
-      </c>
-      <c r="B36" s="143" t="s">
-        <v>100</v>
       </c>
       <c r="C36" s="144"/>
       <c r="D36" s="144"/>
@@ -6494,10 +6090,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="143" t="s">
         <v>101</v>
-      </c>
-      <c r="B37" s="143" t="s">
-        <v>102</v>
       </c>
       <c r="C37" s="144"/>
       <c r="D37" s="147"/>
@@ -6505,10 +6101,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="146" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="86" t="s">
         <v>103</v>
-      </c>
-      <c r="B38" s="86" t="s">
-        <v>104</v>
       </c>
       <c r="C38" s="144"/>
       <c r="D38" s="144"/>
@@ -6516,10 +6112,10 @@
     </row>
     <row r="39" spans="1:5" s="170" customFormat="1">
       <c r="A39" s="168" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B39" s="169" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="166"/>
       <c r="D39" s="166"/>
@@ -6527,10 +6123,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="146" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="143" t="s">
         <v>106</v>
-      </c>
-      <c r="B40" s="143" t="s">
-        <v>107</v>
       </c>
       <c r="C40" s="144"/>
       <c r="D40" s="144"/>
@@ -6538,10 +6134,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="146" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="143" t="s">
         <v>108</v>
-      </c>
-      <c r="B41" s="143" t="s">
-        <v>109</v>
       </c>
       <c r="C41" s="144"/>
       <c r="D41" s="144"/>
@@ -6549,10 +6145,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="146" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="143" t="s">
         <v>110</v>
-      </c>
-      <c r="B42" s="143" t="s">
-        <v>111</v>
       </c>
       <c r="C42" s="144"/>
       <c r="D42" s="144"/>
@@ -6560,10 +6156,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="146" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="143" t="s">
         <v>112</v>
-      </c>
-      <c r="B43" s="143" t="s">
-        <v>113</v>
       </c>
       <c r="C43" s="144"/>
       <c r="D43" s="144"/>
@@ -6571,10 +6167,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="143" t="s">
         <v>114</v>
-      </c>
-      <c r="B44" s="143" t="s">
-        <v>115</v>
       </c>
       <c r="C44" s="144"/>
       <c r="D44" s="144"/>
@@ -6582,10 +6178,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="146" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="143" t="s">
         <v>116</v>
-      </c>
-      <c r="B45" s="143" t="s">
-        <v>117</v>
       </c>
       <c r="C45" s="144"/>
       <c r="D45" s="144"/>
@@ -6593,10 +6189,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="143" t="s">
         <v>118</v>
-      </c>
-      <c r="B46" s="143" t="s">
-        <v>119</v>
       </c>
       <c r="C46" s="144"/>
       <c r="D46" s="144"/>
@@ -6604,10 +6200,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="146" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="143" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" s="143" t="s">
-        <v>121</v>
       </c>
       <c r="C47" s="144"/>
       <c r="D47" s="144"/>
@@ -6615,10 +6211,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="146" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="143" t="s">
         <v>122</v>
-      </c>
-      <c r="B48" s="143" t="s">
-        <v>123</v>
       </c>
       <c r="C48" s="144"/>
       <c r="D48" s="144"/>
@@ -6626,10 +6222,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="165" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B49" s="143" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" s="144"/>
       <c r="D49" s="144"/>
@@ -6637,24 +6233,24 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="146" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="143" t="s">
         <v>125</v>
-      </c>
-      <c r="B50" s="143" t="s">
-        <v>126</v>
       </c>
       <c r="C50" s="144"/>
       <c r="D50" s="144"/>
       <c r="E50" s="144"/>
       <c r="G50" s="77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="143" t="s">
         <v>127</v>
-      </c>
-      <c r="B51" s="143" t="s">
-        <v>128</v>
       </c>
       <c r="C51" s="144"/>
       <c r="D51" s="144"/>
@@ -6674,10 +6270,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="146" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="143" t="s">
         <v>129</v>
-      </c>
-      <c r="B52" s="143" t="s">
-        <v>130</v>
       </c>
       <c r="C52" s="144"/>
       <c r="D52" s="144"/>
@@ -6685,24 +6281,24 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="146" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="143" t="s">
         <v>131</v>
-      </c>
-      <c r="B53" s="143" t="s">
-        <v>132</v>
       </c>
       <c r="C53" s="144"/>
       <c r="D53" s="144"/>
       <c r="E53" s="144"/>
       <c r="G53" s="84" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="146" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="143" t="s">
         <v>133</v>
-      </c>
-      <c r="B54" s="143" t="s">
-        <v>134</v>
       </c>
       <c r="C54" s="144"/>
       <c r="D54" s="144"/>
@@ -6710,10 +6306,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="146" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="143" t="s">
         <v>135</v>
-      </c>
-      <c r="B55" s="143" t="s">
-        <v>136</v>
       </c>
       <c r="C55" s="144"/>
       <c r="D55" s="147"/>
@@ -6721,10 +6317,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="148" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="143" t="s">
         <v>137</v>
-      </c>
-      <c r="B56" s="143" t="s">
-        <v>138</v>
       </c>
       <c r="C56" s="149"/>
       <c r="D56" s="144"/>
@@ -6732,10 +6328,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="146" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="143" t="s">
         <v>139</v>
-      </c>
-      <c r="B57" s="143" t="s">
-        <v>140</v>
       </c>
       <c r="C57" s="149"/>
       <c r="D57" s="144"/>
@@ -6743,10 +6339,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="143" t="s">
         <v>141</v>
-      </c>
-      <c r="B58" s="143" t="s">
-        <v>142</v>
       </c>
       <c r="C58" s="149"/>
       <c r="D58" s="147"/>
@@ -6754,10 +6350,10 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="146" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="143" t="s">
         <v>143</v>
-      </c>
-      <c r="B59" s="143" t="s">
-        <v>144</v>
       </c>
       <c r="C59" s="149"/>
       <c r="D59" s="144"/>
@@ -6765,10 +6361,10 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="143" t="s">
         <v>145</v>
-      </c>
-      <c r="B60" s="143" t="s">
-        <v>146</v>
       </c>
       <c r="C60" s="149"/>
       <c r="D60" s="144"/>
@@ -6776,10 +6372,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="143" t="s">
         <v>147</v>
-      </c>
-      <c r="B61" s="143" t="s">
-        <v>148</v>
       </c>
       <c r="C61" s="149"/>
       <c r="D61" s="147"/>
@@ -6787,10 +6383,10 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="143" t="s">
         <v>149</v>
-      </c>
-      <c r="B62" s="143" t="s">
-        <v>150</v>
       </c>
       <c r="C62" s="149"/>
       <c r="D62" s="147"/>
@@ -6798,10 +6394,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="143" t="s">
         <v>151</v>
-      </c>
-      <c r="B63" s="143" t="s">
-        <v>152</v>
       </c>
       <c r="C63" s="149"/>
       <c r="D63" s="147"/>
@@ -6809,10 +6405,10 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="143" t="s">
         <v>153</v>
-      </c>
-      <c r="B64" s="143" t="s">
-        <v>154</v>
       </c>
       <c r="C64" s="149"/>
       <c r="D64" s="147"/>
@@ -6820,10 +6416,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="143" t="s">
         <v>155</v>
-      </c>
-      <c r="B65" s="143" t="s">
-        <v>156</v>
       </c>
       <c r="C65" s="149"/>
       <c r="D65" s="144"/>
@@ -6831,10 +6427,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="148" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="143" t="s">
         <v>157</v>
-      </c>
-      <c r="B66" s="143" t="s">
-        <v>158</v>
       </c>
       <c r="C66" s="150"/>
       <c r="D66" s="144"/>
@@ -6842,10 +6438,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="146" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="143" t="s">
         <v>160</v>
-      </c>
-      <c r="B67" s="143" t="s">
-        <v>161</v>
       </c>
       <c r="C67" s="150"/>
       <c r="D67" s="144"/>
@@ -6853,10 +6449,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="148" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="143" t="s">
         <v>162</v>
-      </c>
-      <c r="B68" s="143" t="s">
-        <v>163</v>
       </c>
       <c r="C68" s="150"/>
       <c r="D68" s="144"/>
@@ -6864,10 +6460,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="146" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="143" t="s">
         <v>164</v>
-      </c>
-      <c r="B69" s="143" t="s">
-        <v>165</v>
       </c>
       <c r="C69" s="150"/>
       <c r="D69" s="144"/>
@@ -6875,10 +6471,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="143" t="s">
         <v>166</v>
-      </c>
-      <c r="B70" s="143" t="s">
-        <v>167</v>
       </c>
       <c r="C70" s="150"/>
       <c r="D70" s="147"/>
@@ -6886,10 +6482,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="146" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="143" t="s">
         <v>168</v>
-      </c>
-      <c r="B71" s="143" t="s">
-        <v>169</v>
       </c>
       <c r="C71" s="150"/>
       <c r="D71" s="147"/>
@@ -6897,10 +6493,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="146" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" s="143" t="s">
         <v>170</v>
-      </c>
-      <c r="B72" s="143" t="s">
-        <v>171</v>
       </c>
       <c r="C72" s="150"/>
       <c r="D72" s="147"/>
@@ -6908,10 +6504,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="143" t="s">
         <v>172</v>
-      </c>
-      <c r="B73" s="143" t="s">
-        <v>173</v>
       </c>
       <c r="C73" s="150"/>
       <c r="D73" s="144"/>
@@ -6919,10 +6515,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="148" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="143" t="s">
         <v>174</v>
-      </c>
-      <c r="B74" s="143" t="s">
-        <v>175</v>
       </c>
       <c r="C74" s="150"/>
       <c r="D74" s="144"/>
@@ -6930,10 +6526,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="148" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="143" t="s">
         <v>176</v>
-      </c>
-      <c r="B75" s="143" t="s">
-        <v>177</v>
       </c>
       <c r="C75" s="151"/>
       <c r="D75" s="144"/>
@@ -6941,10 +6537,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="146" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="143" t="s">
         <v>178</v>
-      </c>
-      <c r="B76" s="143" t="s">
-        <v>179</v>
       </c>
       <c r="C76" s="151"/>
       <c r="D76" s="147"/>
@@ -6952,10 +6548,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="146" t="s">
+        <v>179</v>
+      </c>
+      <c r="B77" s="143" t="s">
         <v>180</v>
-      </c>
-      <c r="B77" s="143" t="s">
-        <v>181</v>
       </c>
       <c r="C77" s="151"/>
       <c r="D77" s="147"/>
@@ -6963,10 +6559,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="148" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" s="143" t="s">
         <v>182</v>
-      </c>
-      <c r="B78" s="143" t="s">
-        <v>183</v>
       </c>
       <c r="C78" s="150"/>
       <c r="D78" s="143"/>
@@ -6974,10 +6570,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="146" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" s="143" t="s">
         <v>184</v>
-      </c>
-      <c r="B79" s="143" t="s">
-        <v>185</v>
       </c>
       <c r="C79" s="151"/>
       <c r="D79" s="147"/>
@@ -6985,10 +6581,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="143" t="s">
         <v>186</v>
-      </c>
-      <c r="B80" s="143" t="s">
-        <v>187</v>
       </c>
       <c r="C80" s="151"/>
       <c r="D80" s="147"/>
@@ -6996,7 +6592,7 @@
     </row>
     <row r="81" spans="1:5" ht="14.25">
       <c r="A81" s="221" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B81" s="222"/>
       <c r="C81" s="223"/>
@@ -7026,8 +6622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:D62"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7039,7 +6635,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5">
       <c r="A1" s="224" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="224"/>
       <c r="C1" s="224"/>
@@ -7053,607 +6649,603 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="209" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C3" s="226"/>
       <c r="D3" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="152" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="153" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="153" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="154" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="117" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="117" t="s">
-        <v>159</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="155" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="156"/>
       <c r="D6" s="156"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="156"/>
       <c r="D7" s="156"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="155" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="156"/>
       <c r="D8" s="156"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="155" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" s="116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="156"/>
       <c r="D9" s="156"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="155" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="156"/>
       <c r="D10" s="156"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="155" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11" s="116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="156"/>
       <c r="D11" s="156"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="155" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="156"/>
       <c r="D12" s="156"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="155" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="156"/>
       <c r="D13" s="156"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="155" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="156"/>
       <c r="D14" s="156"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="156"/>
       <c r="D15" s="156"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="155" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="116" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="156"/>
       <c r="D16" s="156"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="155" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="156"/>
       <c r="D17" s="156"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="157" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="116" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="156"/>
       <c r="D18" s="156"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="134" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="156"/>
       <c r="D19" s="156"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="157" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" s="116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="156"/>
       <c r="D20" s="156"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="157" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="156"/>
       <c r="D21" s="156"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="157" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="156"/>
       <c r="D22" s="156"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="157" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="156"/>
       <c r="D23" s="156"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="157" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="156"/>
       <c r="D24" s="156"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="157" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" s="116" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="156"/>
       <c r="D25" s="156"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="157" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="156"/>
       <c r="D26" s="156"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="157" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" s="116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="156"/>
       <c r="D27" s="156"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="157" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" s="116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="156"/>
       <c r="D28" s="156"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B29" s="116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="156"/>
       <c r="D29" s="156"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="156"/>
       <c r="D30" s="156"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="158" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="159"/>
       <c r="D31" s="159"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="157" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B32" s="116" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="156"/>
       <c r="D32" s="156"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B33" s="116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="156"/>
       <c r="D33" s="156"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="157" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="116" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="156"/>
       <c r="D34" s="156"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="157" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B35" s="116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="156"/>
       <c r="D35" s="156"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="157" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="156"/>
       <c r="D36" s="156"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="134" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B37" s="116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="156"/>
       <c r="D37" s="156"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="157" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B38" s="116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="156"/>
       <c r="D38" s="156"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="157" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B39" s="116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="156"/>
       <c r="D39" s="156"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="157" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B40" s="116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="156"/>
       <c r="D40" s="156"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="157" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B41" s="116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="156"/>
       <c r="D41" s="156"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="157" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B42" s="116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="156"/>
       <c r="D42" s="156"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="160" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B43" s="116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="156"/>
       <c r="D43" s="156"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="156"/>
       <c r="D44" s="156"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="158" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B45" s="116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="161"/>
       <c r="D45" s="161"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="157" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B46" s="116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="156"/>
       <c r="D46" s="156"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="157" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B47" s="116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" s="156"/>
       <c r="D47" s="156"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="157" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B48" s="116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" s="162"/>
       <c r="D48" s="156"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="157" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B49" s="116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" s="156"/>
       <c r="D49" s="156"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="157" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B50" s="116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" s="156"/>
       <c r="D50" s="156"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="134" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B51" s="116" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="156"/>
       <c r="D51" s="156"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="157" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B52" s="116" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="162"/>
       <c r="D52" s="156"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="157" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B53" s="116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="162"/>
       <c r="D53" s="156"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="157" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B54" s="116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="162"/>
       <c r="D54" s="156"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B55" s="116" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="162"/>
       <c r="D55" s="156"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="134" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B56" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" s="156"/>
       <c r="D56" s="156"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" s="116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="156"/>
       <c r="D57" s="156"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="158" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B58" s="116" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" s="162"/>
       <c r="D58" s="156"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="158" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B59" s="116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C59" s="156"/>
       <c r="D59" s="156"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="157" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B60" s="116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="156"/>
       <c r="D60" s="156"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="158" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" s="116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61" s="156"/>
       <c r="D61" s="156"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="227" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B62" s="228"/>
       <c r="C62" s="228"/>
@@ -7661,7 +7253,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
@@ -7683,7 +7275,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7709,7 +7301,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="22.5">
       <c r="A1" s="229" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1" s="224"/>
       <c r="C1" s="224"/>
@@ -7768,12 +7360,12 @@
       <c r="Z2" s="33"/>
       <c r="AA2" s="33"/>
       <c r="AB2" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="14.25" thickBot="1">
       <c r="A3" s="230" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="231"/>
       <c r="C3" s="232"/>
@@ -7783,7 +7375,7 @@
       <c r="G3" s="234"/>
       <c r="H3" s="234"/>
       <c r="I3" s="234" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J3" s="234"/>
       <c r="K3" s="33"/>
@@ -7804,61 +7396,61 @@
       <c r="Z3" s="33"/>
       <c r="AA3" s="33"/>
       <c r="AB3" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="14.25" thickBot="1">
       <c r="A4" s="235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="235" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="235" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="236" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="236" t="s">
-        <v>250</v>
-      </c>
       <c r="E4" s="237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="237"/>
       <c r="G4" s="237"/>
       <c r="H4" s="237" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I4" s="237"/>
       <c r="J4" s="237"/>
       <c r="K4" s="237" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L4" s="237"/>
       <c r="M4" s="237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N4" s="237" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O4" s="237"/>
       <c r="P4" s="237"/>
       <c r="Q4" s="237" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R4" s="237"/>
       <c r="S4" s="237"/>
       <c r="T4" s="237" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="U4" s="237"/>
       <c r="V4" s="237"/>
       <c r="W4" s="237" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X4" s="237"/>
       <c r="Y4" s="237"/>
       <c r="Z4" s="237" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AA4" s="237"/>
       <c r="AB4" s="237"/>
@@ -7869,84 +7461,84 @@
       <c r="C5" s="235"/>
       <c r="D5" s="236"/>
       <c r="E5" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="G5" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="65" t="s">
-        <v>40</v>
-      </c>
       <c r="H5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="J5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="35" t="s">
-        <v>40</v>
-      </c>
       <c r="K5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="M5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="35" t="s">
-        <v>40</v>
-      </c>
       <c r="N5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="P5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="35" t="s">
-        <v>40</v>
-      </c>
       <c r="Q5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="S5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="35" t="s">
-        <v>40</v>
-      </c>
       <c r="T5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="V5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="35" t="s">
-        <v>40</v>
-      </c>
       <c r="W5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="35" t="s">
+      <c r="Y5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="35" t="s">
-        <v>40</v>
-      </c>
       <c r="Z5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="35" t="s">
+      <c r="AB5" s="35" t="s">
         <v>39</v>
-      </c>
-      <c r="AB5" s="35" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>252</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>253</v>
       </c>
       <c r="C6" s="36">
         <v>1</v>
@@ -7955,88 +7547,86 @@
         <v>2</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O6" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S6" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T6" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U6" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="V6" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="V6" s="38" t="s">
+      <c r="W6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="W6" s="38" t="s">
-        <v>79</v>
-      </c>
       <c r="X6" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="Y6" s="38" t="s">
-        <v>82</v>
-      </c>
       <c r="Z6" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA6" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB6" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="26">
-        <v>11111</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C7" s="26"/>
       <c r="D7" s="40"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
@@ -8065,10 +7655,10 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="40"/>
@@ -8099,10 +7689,10 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="40"/>
@@ -8133,10 +7723,10 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="40"/>
@@ -8167,10 +7757,10 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="40"/>
@@ -8201,10 +7791,10 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="40"/>
@@ -8235,10 +7825,10 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="40"/>
@@ -8269,10 +7859,10 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="40"/>
@@ -8303,10 +7893,10 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="40"/>
@@ -8337,10 +7927,10 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="40"/>
@@ -8371,10 +7961,10 @@
     </row>
     <row r="17" spans="1:28" ht="14.25" thickBot="1">
       <c r="A17" s="44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="47"/>
